--- a/excel_docs/in_progress.xlsx
+++ b/excel_docs/in_progress.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\highlight_excels\excel_docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/648742649a6f8c0c/Documents/GitHub/highlight_excels/excel_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC91B701-E484-4F3A-84FB-8711E1D2FAE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{DC91B701-E484-4F3A-84FB-8711E1D2FAE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9A400A1B-1E75-4A01-BA89-76CAD9569B34}"/>
   <bookViews>
-    <workbookView xWindow="2268" yWindow="2268" windowWidth="17280" windowHeight="8880" xr2:uid="{3C6329DF-4F8C-4069-8EEF-F5CC61BABC37}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3C6329DF-4F8C-4069-8EEF-F5CC61BABC37}"/>
   </bookViews>
   <sheets>
     <sheet name="books" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="34">
   <si>
     <t>ratings (x/5)</t>
   </si>
@@ -124,12 +124,6 @@
     <t>014242417X</t>
   </si>
   <si>
-    <t>hhhhhhhhh</t>
-  </si>
-  <si>
-    <t>kjh;lkj;kl</t>
-  </si>
-  <si>
     <t>5</t>
   </si>
   <si>
@@ -142,13 +136,7 @@
     <t>ISBNs (kinda)</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
     <t>books</t>
-  </si>
-  <si>
-    <t>baking pi</t>
   </si>
 </sst>
 </file>
@@ -526,8 +514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{404AE3F7-2DD2-4B91-A156-BCF8DD69F515}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -540,11 +528,11 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>0</v>
@@ -573,7 +561,7 @@
         <v>439136350</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -587,7 +575,7 @@
         <v>60837020</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -601,7 +589,7 @@
         <v>808514571</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -615,7 +603,7 @@
         <v>28</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -629,7 +617,7 @@
         <v>142402516</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -643,7 +631,7 @@
         <v>525487085</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -657,7 +645,7 @@
         <v>385486804</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -671,7 +659,7 @@
         <v>1285159454</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -681,11 +669,11 @@
       <c r="B11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>29</v>
+      <c r="C11" s="2">
+        <v>385486804</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -695,11 +683,11 @@
       <c r="B12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="2">
+        <v>385486804</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -713,7 +701,7 @@
         <v>980852233</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -727,7 +715,7 @@
         <v>343455345</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -741,7 +729,7 @@
         <v>654654</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -755,21 +743,12 @@
         <v>65465465</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" s="2">
-        <v>3.14</v>
-      </c>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C17" s="3">
-        <v>142402516</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>35</v>
+        <v>439136350</v>
       </c>
     </row>
   </sheetData>

--- a/excel_docs/in_progress.xlsx
+++ b/excel_docs/in_progress.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/648742649a6f8c0c/Documents/GitHub/highlight_excels/excel_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{DC91B701-E484-4F3A-84FB-8711E1D2FAE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9A400A1B-1E75-4A01-BA89-76CAD9569B34}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="13_ncr:1_{DC91B701-E484-4F3A-84FB-8711E1D2FAE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A2F37551-47EE-49A8-9DE7-7B9D4B64259F}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3C6329DF-4F8C-4069-8EEF-F5CC61BABC37}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{3C6329DF-4F8C-4069-8EEF-F5CC61BABC37}"/>
   </bookViews>
   <sheets>
     <sheet name="books" sheetId="1" r:id="rId1"/>
+    <sheet name="favorites" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="36">
   <si>
     <t>ratings (x/5)</t>
   </si>
@@ -137,13 +138,19 @@
   </si>
   <si>
     <t>books</t>
+  </si>
+  <si>
+    <t>fave books</t>
+  </si>
+  <si>
+    <t>fave authors</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,6 +163,14 @@
       <sz val="8"/>
       <color rgb="FF666666"/>
       <name val="Roboto"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -193,11 +208,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -514,8 +530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{404AE3F7-2DD2-4B91-A156-BCF8DD69F515}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -755,4 +771,71 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{925DEBCB-DF87-41FB-AC53-893DC0BD2FE7}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="34.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/excel_docs/in_progress.xlsx
+++ b/excel_docs/in_progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/648742649a6f8c0c/Documents/GitHub/highlight_excels/excel_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="13_ncr:1_{DC91B701-E484-4F3A-84FB-8711E1D2FAE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A2F37551-47EE-49A8-9DE7-7B9D4B64259F}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="13_ncr:1_{DC91B701-E484-4F3A-84FB-8711E1D2FAE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8F4B28A5-ABD4-4777-9B9C-8D20A6C7BAB1}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{3C6329DF-4F8C-4069-8EEF-F5CC61BABC37}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3C6329DF-4F8C-4069-8EEF-F5CC61BABC37}"/>
   </bookViews>
   <sheets>
     <sheet name="books" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="37">
   <si>
     <t>ratings (x/5)</t>
   </si>
@@ -144,6 +144,9 @@
   </si>
   <si>
     <t>fave authors</t>
+  </si>
+  <si>
+    <t>authors</t>
   </si>
 </sst>
 </file>
@@ -208,12 +211,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -530,8 +534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{404AE3F7-2DD2-4B91-A156-BCF8DD69F515}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -542,15 +546,17 @@
     <col min="4" max="4" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -564,7 +570,9 @@
       <c r="C2" s="3">
         <v>743273567</v>
       </c>
-      <c r="D2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
@@ -777,7 +785,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{925DEBCB-DF87-41FB-AC53-893DC0BD2FE7}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>

--- a/excel_docs/in_progress.xlsx
+++ b/excel_docs/in_progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/648742649a6f8c0c/Documents/GitHub/highlight_excels/excel_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="13_ncr:1_{DC91B701-E484-4F3A-84FB-8711E1D2FAE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8F4B28A5-ABD4-4777-9B9C-8D20A6C7BAB1}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="13_ncr:1_{DC91B701-E484-4F3A-84FB-8711E1D2FAE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{64727BA3-1553-49B1-8685-1229D2BFEF5B}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3C6329DF-4F8C-4069-8EEF-F5CC61BABC37}"/>
   </bookViews>
@@ -134,9 +134,6 @@
     <t>3</t>
   </si>
   <si>
-    <t>ISBNs (kinda)</t>
-  </si>
-  <si>
     <t>books</t>
   </si>
   <si>
@@ -147,6 +144,9 @@
   </si>
   <si>
     <t>authors</t>
+  </si>
+  <si>
+    <t>ISBNs</t>
   </si>
 </sst>
 </file>
@@ -535,7 +535,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -548,13 +548,13 @@
   <sheetData>
     <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>36</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>32</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>0</v>
@@ -797,10 +797,10 @@
   <sheetData>
     <row r="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
